--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/영업팀 인원별 매출현황.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/영업팀 인원별 매출현황.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\cloud_내컴퓨터\예제_정리 중\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\4. 필터정렬\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DD7CD5-267F-44B6-914E-54110B6911E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D42D3D-97AE-4F9D-97CC-F5DCACC945D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="2796" windowWidth="15228" windowHeight="16416" xr2:uid="{979F78D1-C7F3-4F32-B732-321C0C07DCD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{979F78D1-C7F3-4F32-B732-321C0C07DCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,30 +19,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$6:$E$21</definedName>
     <definedName name="anscount" hidden="1">1</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$G$3:$H$4</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$G$6:$J$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>영업팀 인원별 매출현황 (9월)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -154,6 +143,10 @@
   </si>
   <si>
     <t>장민석</t>
+  </si>
+  <si>
+    <t>&gt;=50,000,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -675,24 +668,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2555F115-1FDF-445C-B839-38D9A9BC4A10}">
-  <dimension ref="B1:E21"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.8984375" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" customWidth="1"/>
-    <col min="3" max="3" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -700,13 +694,27 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -719,8 +727,20 @@
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -733,8 +753,20 @@
       <c r="E7" s="10">
         <v>170185220</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10">
+        <v>166545320</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
@@ -747,8 +779,20 @@
       <c r="E8" s="10">
         <v>166545320</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10">
+        <v>86123920</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -761,8 +805,20 @@
       <c r="E9" s="10">
         <v>86123920</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="10">
+        <v>71415680</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -775,8 +831,20 @@
       <c r="E10" s="10">
         <v>84163830</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="10">
+        <v>57891360</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
@@ -790,7 +858,7 @@
         <v>82724150</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
@@ -804,7 +872,7 @@
         <v>78933950</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
@@ -818,7 +886,7 @@
         <v>78139770</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
@@ -832,7 +900,7 @@
         <v>72106060</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
@@ -846,7 +914,7 @@
         <v>71415680</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
@@ -860,7 +928,7 @@
         <v>65276160</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>28</v>
       </c>
@@ -874,7 +942,7 @@
         <v>57891360</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>29</v>
       </c>
@@ -888,7 +956,7 @@
         <v>40797790</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
@@ -902,7 +970,7 @@
         <v>29447190</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
@@ -916,7 +984,7 @@
         <v>27616930</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>33</v>
       </c>

--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/영업팀 인원별 매출현황.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/영업팀 인원별 매출현황.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\4. 필터정렬\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D42D3D-97AE-4F9D-97CC-F5DCACC945D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434DB7BB-E83C-47FF-BA94-A3F6038528AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{979F78D1-C7F3-4F32-B732-321C0C07DCD6}"/>
   </bookViews>
@@ -671,7 +671,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
